--- a/src/test/resorce/forresister6.xlsx
+++ b/src/test/resorce/forresister6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\springworkspace\sogoensyu\src\test\resorce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B728A5-A16F-4BF5-8FE5-B16AC239FCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619024BD-0360-43B1-BCEF-1D03276A9B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="108" windowWidth="14232" windowHeight="12360" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="forresister" sheetId="1" r:id="rId1"/>
@@ -62,11 +62,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2022-06-27 9:00:00.000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>aaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-06-29 9:00:00.000000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -508,7 +508,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EE414B-6313-40D1-9E11-6AB96942188A}">
-  <dimension ref="A1"/>
+  <dimension ref="F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -517,10 +517,16 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F2" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
